--- a/output/dotplot_studies_historic_change_table.xlsx
+++ b/output/dotplot_studies_historic_change_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
         <v>-53.66935163980813</v>
       </c>
       <c r="K3" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         <v>-47.60984016465788</v>
       </c>
       <c r="K4" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>-15.57891380768319</v>
       </c>
       <c r="K8" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9">
@@ -910,7 +910,7 @@
         <v>-19.52760464717852</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
@@ -1004,23 +1004,23 @@
         <v>-38.8971743963081</v>
       </c>
       <c r="K12" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1169.33</v>
+        <v>1200</v>
       </c>
       <c r="I13" t="n">
-        <v>1219.17</v>
+        <v>3019.91</v>
       </c>
       <c r="J13" t="n">
-        <v>-4.088027100404386</v>
+        <v>-60.26371646837158</v>
       </c>
       <c r="K13" t="n">
-        <v>859</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,32 +1089,32 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3019.91</v>
+        <v>645.48</v>
       </c>
       <c r="J14" t="n">
-        <v>-60.26371646837158</v>
+        <v>-100</v>
       </c>
       <c r="K14" t="n">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>832.5</v>
+        <v>2681.43</v>
       </c>
       <c r="I15" t="n">
-        <v>14915.22</v>
+        <v>2809.29</v>
       </c>
       <c r="J15" t="n">
-        <v>-94.4184530969037</v>
+        <v>-4.551327915594336</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10700</v>
+        <v>832.5</v>
       </c>
       <c r="I16" t="n">
         <v>14915.22</v>
       </c>
       <c r="J16" t="n">
-        <v>-28.26119896320671</v>
+        <v>-94.4184530969037</v>
       </c>
       <c r="K16" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17">
@@ -1230,32 +1230,32 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>13052.5</v>
+        <v>10700</v>
       </c>
       <c r="I17" t="n">
         <v>14915.22</v>
       </c>
       <c r="J17" t="n">
-        <v>-12.48871957637902</v>
+        <v>-28.26119896320671</v>
       </c>
       <c r="K17" t="n">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1277,32 +1277,32 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12670.32</v>
+        <v>13052.5</v>
       </c>
       <c r="I18" t="n">
-        <v>13195.48</v>
+        <v>14915.22</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.979847644799582</v>
+        <v>-12.48871957637902</v>
       </c>
       <c r="K18" t="n">
-        <v>857</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10450.25</v>
+        <v>12670.32</v>
       </c>
       <c r="I19" t="n">
-        <v>15384.99</v>
+        <v>13195.48</v>
       </c>
       <c r="J19" t="n">
-        <v>-32.0750289730445</v>
+        <v>-3.979847644799582</v>
       </c>
       <c r="K19" t="n">
-        <v>403</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12000</v>
+        <v>10450.25</v>
       </c>
       <c r="I20" t="n">
-        <v>15342</v>
+        <v>15384.99</v>
       </c>
       <c r="J20" t="n">
-        <v>-21.78333985138834</v>
+        <v>-32.0750289730445</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="I21" t="n">
-        <v>18101.66</v>
+        <v>15342</v>
       </c>
       <c r="J21" t="n">
-        <v>-19.89684923924104</v>
+        <v>-21.78333985138834</v>
       </c>
       <c r="K21" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13803.44</v>
+        <v>14500</v>
       </c>
       <c r="I22" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J22" t="n">
-        <v>-7.453996655765044</v>
+        <v>-19.89684923924104</v>
       </c>
       <c r="K22" t="n">
-        <v>544</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12990.49</v>
+        <v>13803.44</v>
       </c>
       <c r="I23" t="n">
         <v>14915.22</v>
       </c>
       <c r="J23" t="n">
-        <v>-12.9044693943502</v>
+        <v>-7.453996655765044</v>
       </c>
       <c r="K23" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,36 +1555,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>12990.49</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>14915.22</v>
       </c>
       <c r="J24" t="n">
-        <v>-20</v>
+        <v>-12.9044693943502</v>
       </c>
       <c r="K24" t="n">
-        <v>194</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1602,36 +1602,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16.84</v>
+        <v>12</v>
       </c>
       <c r="I25" t="n">
-        <v>17.73</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>-5.01974055273548</v>
+        <v>-20</v>
       </c>
       <c r="K25" t="n">
-        <v>762</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1649,36 +1649,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>14.12</v>
+        <v>16.84</v>
       </c>
       <c r="I26" t="n">
-        <v>14.69</v>
+        <v>17.73</v>
       </c>
       <c r="J26" t="n">
-        <v>-3.880190605854325</v>
+        <v>-5.01974055273548</v>
       </c>
       <c r="K26" t="n">
-        <v>856</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1696,36 +1696,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>14.12</v>
       </c>
       <c r="I27" t="n">
-        <v>17.92</v>
+        <v>14.69</v>
       </c>
       <c r="J27" t="n">
-        <v>-10.71428571428572</v>
+        <v>-3.880190605854325</v>
       </c>
       <c r="K27" t="n">
-        <v>28</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>15.14</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>15</v>
+        <v>17.92</v>
       </c>
       <c r="J28" t="n">
-        <v>0.933333333333337</v>
+        <v>-10.71428571428572</v>
       </c>
       <c r="K28" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1790,26 +1790,26 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>13.58</v>
+        <v>15.14</v>
       </c>
       <c r="I29" t="n">
-        <v>14.79</v>
+        <v>15</v>
       </c>
       <c r="J29" t="n">
-        <v>-8.181203515889109</v>
+        <v>0.933333333333337</v>
       </c>
       <c r="K29" t="n">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1819,17 +1819,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1837,36 +1837,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>13.58</v>
       </c>
       <c r="I30" t="n">
-        <v>0.22</v>
+        <v>14.79</v>
       </c>
       <c r="J30" t="n">
-        <v>-63.63636363636365</v>
+        <v>-8.181203515889109</v>
       </c>
       <c r="K30" t="n">
-        <v>205</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1888,32 +1888,32 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J31" t="n">
-        <v>-45.45454545454546</v>
+        <v>-63.63636363636365</v>
       </c>
       <c r="K31" t="n">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1935,32 +1935,32 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="J32" t="n">
-        <v>-14.70588235294119</v>
+        <v>-45.45454545454546</v>
       </c>
       <c r="K32" t="n">
-        <v>774</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1982,32 +1982,32 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="J33" t="n">
-        <v>-3.125000000000003</v>
+        <v>-14.70588235294119</v>
       </c>
       <c r="K33" t="n">
-        <v>840</v>
+        <v>775</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2029,32 +2029,32 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I34" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="J34" t="n">
-        <v>-74.07407407407408</v>
+        <v>-3.125000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>415</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="J35" t="n">
-        <v>-27.27272727272727</v>
+        <v>-74.07407407407408</v>
       </c>
       <c r="K35" t="n">
-        <v>54</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2123,32 +2123,32 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="I36" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="J36" t="n">
-        <v>-11.76470588235295</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="K36" t="n">
-        <v>562</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2170,32 +2170,32 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="J37" t="n">
-        <v>-18.18181818181818</v>
+        <v>-11.76470588235295</v>
       </c>
       <c r="K37" t="n">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2217,32 +2217,32 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="J38" t="n">
-        <v>-8.33333333333333</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="K38" t="n">
-        <v>144</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2264,32 +2264,32 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
       <c r="I39" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="J39" t="n">
-        <v>-76.92307692307693</v>
+        <v>-8.33333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2311,32 +2311,32 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I40" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="J40" t="n">
-        <v>-42.85714285714286</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="K40" t="n">
-        <v>253</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2358,32 +2358,32 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="J41" t="n">
-        <v>-51.35135135135135</v>
+        <v>-42.85714285714286</v>
       </c>
       <c r="K41" t="n">
-        <v>770</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2405,32 +2405,32 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I42" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="J42" t="n">
-        <v>-44.11764705882354</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="K42" t="n">
-        <v>863</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2452,32 +2452,32 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
         <v>0.34</v>
       </c>
       <c r="J43" t="n">
-        <v>-79.41176470588235</v>
+        <v>-44.11764705882354</v>
       </c>
       <c r="K43" t="n">
-        <v>420</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2499,32 +2499,32 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="J44" t="n">
-        <v>-50</v>
+        <v>-79.41176470588235</v>
       </c>
       <c r="K44" t="n">
-        <v>27</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2546,32 +2546,32 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I45" t="n">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="J45" t="n">
-        <v>-40.54054054054054</v>
+        <v>-50</v>
       </c>
       <c r="K45" t="n">
-        <v>560</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2593,32 +2593,32 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I46" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="J46" t="n">
-        <v>-53.84615384615385</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="K46" t="n">
-        <v>350</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2640,42 +2640,42 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I47" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="J47" t="n">
-        <v>-46.34146341463414</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="K47" t="n">
-        <v>149</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2683,36 +2683,36 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2533</v>
+        <v>0.22</v>
       </c>
       <c r="I48" t="n">
-        <v>5091.46</v>
+        <v>0.41</v>
       </c>
       <c r="J48" t="n">
-        <v>-50.25002651498784</v>
+        <v>-46.34146341463414</v>
       </c>
       <c r="K48" t="n">
-        <v>212</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2734,32 +2734,32 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3809.48</v>
+        <v>2533</v>
       </c>
       <c r="I49" t="n">
-        <v>5667.85</v>
+        <v>5091.46</v>
       </c>
       <c r="J49" t="n">
-        <v>-32.78791781716171</v>
+        <v>-50.25002651498784</v>
       </c>
       <c r="K49" t="n">
-        <v>782</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2781,32 +2781,32 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5411.16</v>
+        <v>3809.48</v>
       </c>
       <c r="I50" t="n">
-        <v>7217.52</v>
+        <v>5667.85</v>
       </c>
       <c r="J50" t="n">
-        <v>-25.02743324576864</v>
+        <v>-32.78791781716171</v>
       </c>
       <c r="K50" t="n">
-        <v>860</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2828,32 +2828,32 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5387.3</v>
+        <v>5411.16</v>
       </c>
       <c r="I51" t="n">
-        <v>5373.61</v>
+        <v>7217.52</v>
       </c>
       <c r="J51" t="n">
-        <v>0.25476355745952</v>
+        <v>-25.02743324576864</v>
       </c>
       <c r="K51" t="n">
-        <v>409</v>
+        <v>861</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2875,32 +2875,32 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1525</v>
+        <v>5387.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2900.63</v>
+        <v>5373.61</v>
       </c>
       <c r="J52" t="n">
-        <v>-47.42521452236239</v>
+        <v>0.25476355745952</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2922,37 +2922,37 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5291.85</v>
+        <v>1525</v>
       </c>
       <c r="I53" t="n">
-        <v>5667.85</v>
+        <v>2900.63</v>
       </c>
       <c r="J53" t="n">
-        <v>-6.633908801397355</v>
+        <v>-47.42521452236239</v>
       </c>
       <c r="K53" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2969,37 +2969,37 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5434.78</v>
+        <v>5291.85</v>
       </c>
       <c r="I54" t="n">
-        <v>5091.46</v>
+        <v>5667.85</v>
       </c>
       <c r="J54" t="n">
-        <v>6.743056019295049</v>
+        <v>-6.633908801397355</v>
       </c>
       <c r="K54" t="n">
-        <v>343</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3016,42 +3016,42 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8122.17</v>
+        <v>5434.78</v>
       </c>
       <c r="I55" t="n">
-        <v>8322.120000000001</v>
+        <v>5091.46</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.402632982941855</v>
+        <v>6.743056019295049</v>
       </c>
       <c r="K55" t="n">
-        <v>158</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3059,36 +3059,36 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>48</v>
+        <v>8122.17</v>
       </c>
       <c r="I56" t="n">
-        <v>49</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>-2.040816326530612</v>
+        <v>-2.402632982941855</v>
       </c>
       <c r="K56" t="n">
-        <v>213</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3106,36 +3106,36 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>26.38</v>
+        <v>48</v>
       </c>
       <c r="I57" t="n">
-        <v>39.94</v>
+        <v>49</v>
       </c>
       <c r="J57" t="n">
-        <v>-33.95092638958437</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="K57" t="n">
-        <v>750</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3153,36 +3153,36 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>36.18</v>
+        <v>26.38</v>
       </c>
       <c r="I58" t="n">
-        <v>45.19</v>
+        <v>39.94</v>
       </c>
       <c r="J58" t="n">
-        <v>-19.9380393892454</v>
+        <v>-33.95092638958437</v>
       </c>
       <c r="K58" t="n">
-        <v>855</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3204,22 +3204,22 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>30</v>
+        <v>36.18</v>
       </c>
       <c r="I59" t="n">
-        <v>45.4</v>
+        <v>45.19</v>
       </c>
       <c r="J59" t="n">
-        <v>-33.92070484581497</v>
+        <v>-19.9380393892454</v>
       </c>
       <c r="K59" t="n">
-        <v>232</v>
+        <v>856</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3247,36 +3247,36 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I60" t="n">
         <v>45.4</v>
       </c>
       <c r="J60" t="n">
-        <v>-29.51541850220264</v>
+        <v>-33.92070484581497</v>
       </c>
       <c r="K60" t="n">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3298,32 +3298,32 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>43.43</v>
+        <v>32</v>
       </c>
       <c r="I61" t="n">
-        <v>44.8</v>
+        <v>45.4</v>
       </c>
       <c r="J61" t="n">
-        <v>-3.058035714285709</v>
+        <v>-29.51541850220264</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3345,32 +3345,32 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>39.47</v>
+        <v>43.43</v>
       </c>
       <c r="I62" t="n">
-        <v>41.7</v>
+        <v>44.8</v>
       </c>
       <c r="J62" t="n">
-        <v>-5.347721822541976</v>
+        <v>-3.058035714285709</v>
       </c>
       <c r="K62" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3388,36 +3388,36 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>41.49</v>
+        <v>39.47</v>
       </c>
       <c r="I63" t="n">
-        <v>39.94</v>
+        <v>41.7</v>
       </c>
       <c r="J63" t="n">
-        <v>3.880821231847782</v>
+        <v>-5.347721822541976</v>
       </c>
       <c r="K63" t="n">
-        <v>541</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3435,46 +3435,46 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>41.17</v>
+        <v>41.49</v>
       </c>
       <c r="I64" t="n">
-        <v>45.4</v>
+        <v>39.94</v>
       </c>
       <c r="J64" t="n">
-        <v>-9.317180616740082</v>
+        <v>3.880821231847782</v>
       </c>
       <c r="K64" t="n">
-        <v>139</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3482,36 +3482,36 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>41.32</v>
+        <v>41.17</v>
       </c>
       <c r="I65" t="n">
-        <v>87.12</v>
+        <v>45.4</v>
       </c>
       <c r="J65" t="n">
-        <v>-52.57116620752985</v>
+        <v>-9.317180616740082</v>
       </c>
       <c r="K65" t="n">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3533,32 +3533,32 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>39.6</v>
+        <v>41.32</v>
       </c>
       <c r="I66" t="n">
-        <v>75.95999999999999</v>
+        <v>87.12</v>
       </c>
       <c r="J66" t="n">
-        <v>-47.86729857819905</v>
+        <v>-52.57116620752985</v>
       </c>
       <c r="K66" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3580,32 +3580,32 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>65.16</v>
+        <v>39.6</v>
       </c>
       <c r="I67" t="n">
-        <v>88.2</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>-26.12244897959184</v>
+        <v>-47.86729857819905</v>
       </c>
       <c r="K67" t="n">
-        <v>792</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3627,32 +3627,32 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>36.78</v>
+        <v>65.16</v>
       </c>
       <c r="I68" t="n">
-        <v>74.36</v>
+        <v>88.2</v>
       </c>
       <c r="J68" t="n">
-        <v>-50.53792361484669</v>
+        <v>-26.12244897959184</v>
       </c>
       <c r="K68" t="n">
-        <v>853</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3674,32 +3674,32 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>38.83</v>
+        <v>36.78</v>
       </c>
       <c r="I69" t="n">
-        <v>86.61</v>
+        <v>86.55</v>
       </c>
       <c r="J69" t="n">
-        <v>-55.16683985682946</v>
+        <v>-57.50433275563258</v>
       </c>
       <c r="K69" t="n">
-        <v>400</v>
+        <v>854</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3721,32 +3721,32 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>49</v>
+        <v>38.83</v>
       </c>
       <c r="I70" t="n">
-        <v>102.96</v>
+        <v>86.61</v>
       </c>
       <c r="J70" t="n">
-        <v>-52.4087024087024</v>
+        <v>-55.16683985682946</v>
       </c>
       <c r="K70" t="n">
-        <v>230</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3768,32 +3768,32 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I71" t="n">
-        <v>90</v>
+        <v>102.96</v>
       </c>
       <c r="J71" t="n">
-        <v>-34.44444444444444</v>
+        <v>-52.4087024087024</v>
       </c>
       <c r="K71" t="n">
-        <v>22</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3815,32 +3815,32 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>48.15</v>
+        <v>59</v>
       </c>
       <c r="I72" t="n">
-        <v>87.12</v>
+        <v>90</v>
       </c>
       <c r="J72" t="n">
-        <v>-44.73140495867769</v>
+        <v>-34.44444444444444</v>
       </c>
       <c r="K72" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3862,32 +3862,32 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>44.28</v>
+        <v>48.15</v>
       </c>
       <c r="I73" t="n">
-        <v>88.2</v>
+        <v>87.12</v>
       </c>
       <c r="J73" t="n">
-        <v>-49.79591836734694</v>
+        <v>-44.73140495867769</v>
       </c>
       <c r="K73" t="n">
-        <v>536</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3909,42 +3909,42 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>56.31</v>
+        <v>44.28</v>
       </c>
       <c r="I74" t="n">
-        <v>94.14</v>
+        <v>88.2</v>
       </c>
       <c r="J74" t="n">
-        <v>-40.18483110261313</v>
+        <v>-49.79591836734694</v>
       </c>
       <c r="K74" t="n">
-        <v>672</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,32 +3956,32 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>14.46</v>
+        <v>56.31</v>
       </c>
       <c r="I75" t="n">
-        <v>19.99</v>
+        <v>94.14</v>
       </c>
       <c r="J75" t="n">
-        <v>-27.66383191595797</v>
+        <v>-40.18483110261313</v>
       </c>
       <c r="K75" t="n">
-        <v>221</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3999,36 +3999,36 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>13.1</v>
+        <v>14.46</v>
       </c>
       <c r="I76" t="n">
-        <v>13.09</v>
+        <v>19.99</v>
       </c>
       <c r="J76" t="n">
-        <v>0.07639419404125124</v>
+        <v>-27.66383191595797</v>
       </c>
       <c r="K76" t="n">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>14.78</v>
+        <v>13.1</v>
       </c>
       <c r="I77" t="n">
-        <v>24.2</v>
+        <v>13.09</v>
       </c>
       <c r="J77" t="n">
-        <v>-38.92561983471074</v>
+        <v>0.07639419404125124</v>
       </c>
       <c r="K77" t="n">
-        <v>798</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4097,32 +4097,32 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>12.89</v>
+        <v>14.78</v>
       </c>
       <c r="I78" t="n">
-        <v>20.72</v>
+        <v>24.2</v>
       </c>
       <c r="J78" t="n">
-        <v>-37.78957528957528</v>
+        <v>-38.92561983471074</v>
       </c>
       <c r="K78" t="n">
-        <v>854</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4144,32 +4144,32 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>8.81</v>
+        <v>12.89</v>
       </c>
       <c r="I79" t="n">
-        <v>22.75</v>
+        <v>20.72</v>
       </c>
       <c r="J79" t="n">
-        <v>-61.27472527472527</v>
+        <v>-37.78957528957528</v>
       </c>
       <c r="K79" t="n">
-        <v>423</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4191,32 +4191,32 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>11.16</v>
+        <v>8.81</v>
       </c>
       <c r="I80" t="n">
-        <v>19.58</v>
+        <v>22.75</v>
       </c>
       <c r="J80" t="n">
-        <v>-43.00306435137895</v>
+        <v>-61.27472527472527</v>
       </c>
       <c r="K80" t="n">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4238,32 +4238,32 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>17.72</v>
+        <v>11.16</v>
       </c>
       <c r="I81" t="n">
-        <v>19.99</v>
+        <v>19.58</v>
       </c>
       <c r="J81" t="n">
-        <v>-11.35567783891946</v>
+        <v>-43.00306435137895</v>
       </c>
       <c r="K81" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4285,32 +4285,32 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>15.22</v>
+        <v>17.72</v>
       </c>
       <c r="I82" t="n">
-        <v>24.2</v>
+        <v>19.99</v>
       </c>
       <c r="J82" t="n">
-        <v>-37.10743801652892</v>
+        <v>-11.35567783891946</v>
       </c>
       <c r="K82" t="n">
-        <v>538</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4332,32 +4332,32 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>13.68</v>
+        <v>15.22</v>
       </c>
       <c r="I83" t="n">
-        <v>19.99</v>
+        <v>24.2</v>
       </c>
       <c r="J83" t="n">
-        <v>-31.56578289144572</v>
+        <v>-37.10743801652892</v>
       </c>
       <c r="K83" t="n">
-        <v>337</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4379,42 +4379,42 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>18.78</v>
+        <v>13.68</v>
       </c>
       <c r="I84" t="n">
-        <v>29.12</v>
+        <v>19.99</v>
       </c>
       <c r="J84" t="n">
-        <v>-35.50824175824175</v>
+        <v>-31.56578289144572</v>
       </c>
       <c r="K84" t="n">
-        <v>169</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4422,36 +4422,36 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>61.01</v>
+        <v>18.78</v>
       </c>
       <c r="I85" t="n">
-        <v>387</v>
+        <v>29.12</v>
       </c>
       <c r="J85" t="n">
-        <v>-84.23514211886305</v>
+        <v>-35.50824175824175</v>
       </c>
       <c r="K85" t="n">
-        <v>225</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4473,32 +4473,32 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>260.25</v>
+        <v>61.01</v>
       </c>
       <c r="I86" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J86" t="n">
-        <v>-25</v>
+        <v>-84.23514211886305</v>
       </c>
       <c r="K86" t="n">
-        <v>764</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4520,32 +4520,32 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>84.09</v>
+        <v>260.25</v>
       </c>
       <c r="I87" t="n">
-        <v>322.42</v>
+        <v>347</v>
       </c>
       <c r="J87" t="n">
-        <v>-73.91911171763537</v>
+        <v>-25</v>
       </c>
       <c r="K87" t="n">
-        <v>861</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4563,36 +4563,36 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>155.01</v>
+        <v>84.09</v>
       </c>
       <c r="I88" t="n">
-        <v>387</v>
+        <v>322.42</v>
       </c>
       <c r="J88" t="n">
-        <v>-59.94573643410853</v>
+        <v>-73.91911171763537</v>
       </c>
       <c r="K88" t="n">
-        <v>49</v>
+        <v>862</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4610,36 +4610,36 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>211.34</v>
+        <v>155.01</v>
       </c>
       <c r="I89" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J89" t="n">
-        <v>-39.09510086455331</v>
+        <v>-59.94573643410853</v>
       </c>
       <c r="K89" t="n">
-        <v>556</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4661,32 +4661,32 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>64.59</v>
+        <v>211.34</v>
       </c>
       <c r="I90" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="J90" t="n">
-        <v>-80.12615384615384</v>
+        <v>-39.09510086455331</v>
       </c>
       <c r="K90" t="n">
-        <v>154</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4704,26 +4704,26 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="I91" t="n">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J91" t="n">
-        <v>-100</v>
+        <v>-80.12615384615384</v>
       </c>
       <c r="K91" t="n">
-        <v>372</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4751,36 +4751,36 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>58.95</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="J92" t="n">
-        <v>-54.99999999999999</v>
+        <v>-100</v>
       </c>
       <c r="K92" t="n">
-        <v>766</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4802,32 +4802,32 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>46</v>
+        <v>58.95</v>
       </c>
       <c r="I93" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J93" t="n">
-        <v>-58.18181818181818</v>
+        <v>-54.99999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>51</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4849,32 +4849,32 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>65.5</v>
+        <v>46</v>
       </c>
       <c r="I94" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J94" t="n">
-        <v>-50</v>
+        <v>-58.18181818181818</v>
       </c>
       <c r="K94" t="n">
-        <v>558</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4905,6 +4905,53 @@
         <v>-50</v>
       </c>
       <c r="K95" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>131</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K96" t="n">
         <v>151</v>
       </c>
     </row>

--- a/output/dotplot_studies_historic_change_table.xlsx
+++ b/output/dotplot_studies_historic_change_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,10 +3677,10 @@
         <v>36.78</v>
       </c>
       <c r="I69" t="n">
-        <v>86.55</v>
+        <v>74.36</v>
       </c>
       <c r="J69" t="n">
-        <v>-57.50433275563258</v>
+        <v>-50.53792361484669</v>
       </c>
       <c r="K69" t="n">
         <v>854</v>
@@ -3924,17 +3924,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3956,42 +3956,42 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>56.31</v>
+        <v>54.07</v>
       </c>
       <c r="I75" t="n">
-        <v>94.14</v>
+        <v>102.96</v>
       </c>
       <c r="J75" t="n">
-        <v>-40.18483110261313</v>
+        <v>-47.48445998445998</v>
       </c>
       <c r="K75" t="n">
-        <v>673</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4003,32 +4003,32 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>14.46</v>
+        <v>56.31</v>
       </c>
       <c r="I76" t="n">
-        <v>19.99</v>
+        <v>94.14</v>
       </c>
       <c r="J76" t="n">
-        <v>-27.66383191595797</v>
+        <v>-40.18483110261313</v>
       </c>
       <c r="K76" t="n">
-        <v>221</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>13.1</v>
+        <v>14.46</v>
       </c>
       <c r="I77" t="n">
-        <v>13.09</v>
+        <v>19.99</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07639419404125124</v>
+        <v>-27.66383191595797</v>
       </c>
       <c r="K77" t="n">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4093,36 +4093,36 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>14.78</v>
+        <v>13.1</v>
       </c>
       <c r="I78" t="n">
-        <v>24.2</v>
+        <v>13.09</v>
       </c>
       <c r="J78" t="n">
-        <v>-38.92561983471074</v>
+        <v>0.07639419404125124</v>
       </c>
       <c r="K78" t="n">
-        <v>799</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4144,32 +4144,32 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>12.89</v>
+        <v>14.78</v>
       </c>
       <c r="I79" t="n">
-        <v>20.72</v>
+        <v>24.2</v>
       </c>
       <c r="J79" t="n">
-        <v>-37.78957528957528</v>
+        <v>-38.92561983471074</v>
       </c>
       <c r="K79" t="n">
-        <v>855</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4191,32 +4191,32 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>8.81</v>
+        <v>12.89</v>
       </c>
       <c r="I80" t="n">
-        <v>22.75</v>
+        <v>20.72</v>
       </c>
       <c r="J80" t="n">
-        <v>-61.27472527472527</v>
+        <v>-37.78957528957528</v>
       </c>
       <c r="K80" t="n">
-        <v>422</v>
+        <v>855</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4238,32 +4238,32 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>11.16</v>
+        <v>8.81</v>
       </c>
       <c r="I81" t="n">
-        <v>19.58</v>
+        <v>22.75</v>
       </c>
       <c r="J81" t="n">
-        <v>-43.00306435137895</v>
+        <v>-61.27472527472527</v>
       </c>
       <c r="K81" t="n">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4285,32 +4285,32 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>17.72</v>
+        <v>11.16</v>
       </c>
       <c r="I82" t="n">
-        <v>19.99</v>
+        <v>19.58</v>
       </c>
       <c r="J82" t="n">
-        <v>-11.35567783891946</v>
+        <v>-43.00306435137895</v>
       </c>
       <c r="K82" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4332,32 +4332,32 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>15.22</v>
+        <v>17.72</v>
       </c>
       <c r="I83" t="n">
-        <v>24.2</v>
+        <v>19.99</v>
       </c>
       <c r="J83" t="n">
-        <v>-37.10743801652892</v>
+        <v>-11.35567783891946</v>
       </c>
       <c r="K83" t="n">
-        <v>537</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4379,32 +4379,32 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>13.68</v>
+        <v>15.22</v>
       </c>
       <c r="I84" t="n">
-        <v>19.99</v>
+        <v>24.2</v>
       </c>
       <c r="J84" t="n">
-        <v>-31.56578289144572</v>
+        <v>-37.10743801652892</v>
       </c>
       <c r="K84" t="n">
-        <v>337</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4426,42 +4426,42 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>18.78</v>
+        <v>13.68</v>
       </c>
       <c r="I85" t="n">
-        <v>29.12</v>
+        <v>19.99</v>
       </c>
       <c r="J85" t="n">
-        <v>-35.50824175824175</v>
+        <v>-31.56578289144572</v>
       </c>
       <c r="K85" t="n">
-        <v>169</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4469,36 +4469,36 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>61.01</v>
+        <v>18.78</v>
       </c>
       <c r="I86" t="n">
-        <v>387</v>
+        <v>31.36</v>
       </c>
       <c r="J86" t="n">
-        <v>-84.23514211886305</v>
+        <v>-40.11479591836734</v>
       </c>
       <c r="K86" t="n">
-        <v>225</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4520,32 +4520,32 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>260.25</v>
+        <v>61.01</v>
       </c>
       <c r="I87" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J87" t="n">
-        <v>-25</v>
+        <v>-84.23514211886305</v>
       </c>
       <c r="K87" t="n">
-        <v>765</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4567,32 +4567,32 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>84.09</v>
+        <v>260.25</v>
       </c>
       <c r="I88" t="n">
-        <v>322.42</v>
+        <v>347</v>
       </c>
       <c r="J88" t="n">
-        <v>-73.91911171763537</v>
+        <v>-25</v>
       </c>
       <c r="K88" t="n">
-        <v>862</v>
+        <v>765</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4610,36 +4610,36 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>155.01</v>
+        <v>84.09</v>
       </c>
       <c r="I89" t="n">
-        <v>387</v>
+        <v>322.42</v>
       </c>
       <c r="J89" t="n">
-        <v>-59.94573643410853</v>
+        <v>-73.91911171763537</v>
       </c>
       <c r="K89" t="n">
-        <v>49</v>
+        <v>862</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4657,36 +4657,36 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>211.34</v>
+        <v>155.01</v>
       </c>
       <c r="I90" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J90" t="n">
-        <v>-39.09510086455331</v>
+        <v>-59.94573643410853</v>
       </c>
       <c r="K90" t="n">
-        <v>555</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4708,32 +4708,32 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>64.59</v>
+        <v>211.34</v>
       </c>
       <c r="I91" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="J91" t="n">
-        <v>-80.12615384615384</v>
+        <v>-39.09510086455331</v>
       </c>
       <c r="K91" t="n">
-        <v>154</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4751,26 +4751,26 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="I92" t="n">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J92" t="n">
-        <v>-100</v>
+        <v>-80.12615384615384</v>
       </c>
       <c r="K92" t="n">
-        <v>371</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4798,36 +4798,36 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>58.95</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="J93" t="n">
-        <v>-54.99999999999999</v>
+        <v>-100</v>
       </c>
       <c r="K93" t="n">
-        <v>767</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4849,32 +4849,32 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>46</v>
+        <v>58.95</v>
       </c>
       <c r="I94" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J94" t="n">
-        <v>-58.18181818181818</v>
+        <v>-54.99999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>51</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4896,32 +4896,32 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>65.5</v>
+        <v>46</v>
       </c>
       <c r="I95" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J95" t="n">
-        <v>-50</v>
+        <v>-58.18181818181818</v>
       </c>
       <c r="K95" t="n">
-        <v>557</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4952,6 +4952,53 @@
         <v>-50</v>
       </c>
       <c r="K96" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>131</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K97" t="n">
         <v>151</v>
       </c>
     </row>

--- a/output/dotplot_studies_historic_change_table.xlsx
+++ b/output/dotplot_studies_historic_change_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3924,7 +3924,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Nachfrage+Tech</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,32 +3956,32 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>54.07</v>
+        <v>60.08</v>
       </c>
       <c r="I75" t="n">
         <v>102.96</v>
       </c>
       <c r="J75" t="n">
-        <v>-47.48445998445998</v>
+        <v>-41.64724164724164</v>
       </c>
       <c r="K75" t="n">
-        <v>106</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4003,42 +4003,42 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>56.31</v>
+        <v>54.07</v>
       </c>
       <c r="I76" t="n">
-        <v>94.14</v>
+        <v>102.96</v>
       </c>
       <c r="J76" t="n">
-        <v>-40.18483110261313</v>
+        <v>-47.48445998445998</v>
       </c>
       <c r="K76" t="n">
-        <v>673</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4050,32 +4050,32 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>14.46</v>
+        <v>56.31</v>
       </c>
       <c r="I77" t="n">
-        <v>19.99</v>
+        <v>94.14</v>
       </c>
       <c r="J77" t="n">
-        <v>-27.66383191595797</v>
+        <v>-40.18483110261313</v>
       </c>
       <c r="K77" t="n">
-        <v>221</v>
+        <v>673</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4093,36 +4093,36 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>13.1</v>
+        <v>14.46</v>
       </c>
       <c r="I78" t="n">
-        <v>13.09</v>
+        <v>19.99</v>
       </c>
       <c r="J78" t="n">
-        <v>0.07639419404125124</v>
+        <v>-27.66383191595797</v>
       </c>
       <c r="K78" t="n">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4140,36 +4140,36 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>14.78</v>
+        <v>13.1</v>
       </c>
       <c r="I79" t="n">
-        <v>24.2</v>
+        <v>13.09</v>
       </c>
       <c r="J79" t="n">
-        <v>-38.92561983471074</v>
+        <v>0.07639419404125124</v>
       </c>
       <c r="K79" t="n">
-        <v>799</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4191,32 +4191,32 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>12.89</v>
+        <v>14.78</v>
       </c>
       <c r="I80" t="n">
-        <v>20.72</v>
+        <v>24.2</v>
       </c>
       <c r="J80" t="n">
-        <v>-37.78957528957528</v>
+        <v>-38.92561983471074</v>
       </c>
       <c r="K80" t="n">
-        <v>855</v>
+        <v>799</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4238,32 +4238,32 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>8.81</v>
+        <v>12.89</v>
       </c>
       <c r="I81" t="n">
-        <v>22.75</v>
+        <v>20.72</v>
       </c>
       <c r="J81" t="n">
-        <v>-61.27472527472527</v>
+        <v>-37.78957528957528</v>
       </c>
       <c r="K81" t="n">
-        <v>422</v>
+        <v>855</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4285,32 +4285,32 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>11.16</v>
+        <v>8.81</v>
       </c>
       <c r="I82" t="n">
-        <v>19.58</v>
+        <v>22.75</v>
       </c>
       <c r="J82" t="n">
-        <v>-43.00306435137895</v>
+        <v>-61.27472527472527</v>
       </c>
       <c r="K82" t="n">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4332,32 +4332,32 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>17.72</v>
+        <v>11.16</v>
       </c>
       <c r="I83" t="n">
-        <v>19.99</v>
+        <v>19.58</v>
       </c>
       <c r="J83" t="n">
-        <v>-11.35567783891946</v>
+        <v>-43.00306435137895</v>
       </c>
       <c r="K83" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4379,32 +4379,32 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>15.22</v>
+        <v>17.72</v>
       </c>
       <c r="I84" t="n">
-        <v>24.2</v>
+        <v>19.99</v>
       </c>
       <c r="J84" t="n">
-        <v>-37.10743801652892</v>
+        <v>-11.35567783891946</v>
       </c>
       <c r="K84" t="n">
-        <v>537</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4426,22 +4426,22 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>13.68</v>
+        <v>15.22</v>
       </c>
       <c r="I85" t="n">
-        <v>19.99</v>
+        <v>24.2</v>
       </c>
       <c r="J85" t="n">
-        <v>-31.56578289144572</v>
+        <v>-37.10743801652892</v>
       </c>
       <c r="K85" t="n">
-        <v>337</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Nachfrage+Tech</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4473,22 +4473,22 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>18.78</v>
+        <v>24.47</v>
       </c>
       <c r="I86" t="n">
-        <v>31.36</v>
+        <v>29.12</v>
       </c>
       <c r="J86" t="n">
-        <v>-40.11479591836734</v>
+        <v>-15.9684065934066</v>
       </c>
       <c r="K86" t="n">
-        <v>169</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4498,17 +4498,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4516,46 +4516,46 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>61.01</v>
+        <v>13.68</v>
       </c>
       <c r="I87" t="n">
-        <v>387</v>
+        <v>19.99</v>
       </c>
       <c r="J87" t="n">
-        <v>-84.23514211886305</v>
+        <v>-31.56578289144572</v>
       </c>
       <c r="K87" t="n">
-        <v>225</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4563,36 +4563,36 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>260.25</v>
+        <v>18.78</v>
       </c>
       <c r="I88" t="n">
-        <v>347</v>
+        <v>31.36</v>
       </c>
       <c r="J88" t="n">
-        <v>-25</v>
+        <v>-40.11479591836734</v>
       </c>
       <c r="K88" t="n">
-        <v>765</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4614,32 +4614,32 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>84.09</v>
+        <v>61.01</v>
       </c>
       <c r="I89" t="n">
-        <v>322.42</v>
+        <v>387</v>
       </c>
       <c r="J89" t="n">
-        <v>-73.91911171763537</v>
+        <v>-84.23514211886305</v>
       </c>
       <c r="K89" t="n">
-        <v>862</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4657,36 +4657,36 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>155.01</v>
+        <v>260.25</v>
       </c>
       <c r="I90" t="n">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="J90" t="n">
-        <v>-59.94573643410853</v>
+        <v>-25</v>
       </c>
       <c r="K90" t="n">
-        <v>49</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4708,32 +4708,32 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>211.34</v>
+        <v>84.09</v>
       </c>
       <c r="I91" t="n">
-        <v>347</v>
+        <v>322.42</v>
       </c>
       <c r="J91" t="n">
-        <v>-39.09510086455331</v>
+        <v>-73.91911171763537</v>
       </c>
       <c r="K91" t="n">
-        <v>555</v>
+        <v>862</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4751,26 +4751,26 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>64.59</v>
+        <v>155.01</v>
       </c>
       <c r="I92" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="J92" t="n">
-        <v>-80.12615384615384</v>
+        <v>-59.94573643410853</v>
       </c>
       <c r="K92" t="n">
-        <v>154</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4798,36 +4798,36 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>211.34</v>
       </c>
       <c r="I93" t="n">
         <v>347</v>
       </c>
       <c r="J93" t="n">
-        <v>-100</v>
+        <v>-39.09510086455331</v>
       </c>
       <c r="K93" t="n">
-        <v>371</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4845,36 +4845,36 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>58.95</v>
+        <v>64.59</v>
       </c>
       <c r="I94" t="n">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="J94" t="n">
-        <v>-54.99999999999999</v>
+        <v>-80.12615384615384</v>
       </c>
       <c r="K94" t="n">
-        <v>767</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4892,26 +4892,26 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>110</v>
+        <v>347</v>
       </c>
       <c r="J95" t="n">
-        <v>-58.18181818181818</v>
+        <v>-100</v>
       </c>
       <c r="K95" t="n">
-        <v>51</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4943,62 +4943,156 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>65.5</v>
+        <v>58.95</v>
       </c>
       <c r="I96" t="n">
         <v>131</v>
       </c>
       <c r="J96" t="n">
-        <v>-50</v>
+        <v>-54.99999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>557</v>
+        <v>767</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>46</v>
+      </c>
+      <c r="I97" t="n">
+        <v>110</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-58.18181818181818</v>
+      </c>
+      <c r="K97" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>131</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K98" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>UBA (2021)</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>GreenSupreme</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>food waste per capita and year</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="F99" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>kg/cap/year</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="H99" t="n">
         <v>65.5</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I99" t="n">
         <v>131</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J99" t="n">
         <v>-50</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K99" t="n">
         <v>151</v>
       </c>
     </row>
